--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf7-Fgfr1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf7-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Fgf7</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.076485816864</v>
+        <v>11.14069866666667</v>
       </c>
       <c r="H2">
-        <v>11.076485816864</v>
+        <v>33.422096</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9684602815214559</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9684602815214559</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.12819809555384</v>
+        <v>3.76917</v>
       </c>
       <c r="N2">
-        <v>2.12819809555384</v>
+        <v>11.30751</v>
       </c>
       <c r="O2">
-        <v>0.01573081063622635</v>
+        <v>0.02686645020528053</v>
       </c>
       <c r="P2">
-        <v>0.01573081063622635</v>
+        <v>0.02686645020528053</v>
       </c>
       <c r="Q2">
-        <v>23.57295602087909</v>
+        <v>41.99118719344001</v>
       </c>
       <c r="R2">
-        <v>23.57295602087909</v>
+        <v>377.92068474096</v>
       </c>
       <c r="S2">
-        <v>0.01573081063622635</v>
+        <v>0.02601908992928816</v>
       </c>
       <c r="T2">
-        <v>0.01573081063622635</v>
+        <v>0.02601908992928816</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.076485816864</v>
+        <v>11.14069866666667</v>
       </c>
       <c r="H3">
-        <v>11.076485816864</v>
+        <v>33.422096</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9684602815214559</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9684602815214559</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.29144960819239</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N3">
-        <v>82.29144960819239</v>
+        <v>247.44181</v>
       </c>
       <c r="O3">
-        <v>0.6082663138696941</v>
+        <v>0.5879175050094569</v>
       </c>
       <c r="P3">
-        <v>0.6082663138696941</v>
+        <v>0.5879175050094571</v>
       </c>
       <c r="Q3">
-        <v>911.5000744343216</v>
+        <v>918.8915475815289</v>
       </c>
       <c r="R3">
-        <v>911.5000744343216</v>
+        <v>8270.023928233761</v>
       </c>
       <c r="S3">
-        <v>0.6082663138696941</v>
+        <v>0.5693747524128506</v>
       </c>
       <c r="T3">
-        <v>0.6082663138696941</v>
+        <v>0.5693747524128507</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.076485816864</v>
+        <v>11.14069866666667</v>
       </c>
       <c r="H4">
-        <v>11.076485816864</v>
+        <v>33.422096</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9684602815214559</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9684602815214559</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.467485982705433</v>
+        <v>0.5716056666666667</v>
       </c>
       <c r="N4">
-        <v>0.467485982705433</v>
+        <v>1.714817</v>
       </c>
       <c r="O4">
-        <v>0.003455474132973309</v>
+        <v>0.004074375838860061</v>
       </c>
       <c r="P4">
-        <v>0.003455474132973309</v>
+        <v>0.004074375838860062</v>
       </c>
       <c r="Q4">
-        <v>5.178101857019458</v>
+        <v>6.368086488492445</v>
       </c>
       <c r="R4">
-        <v>5.178101857019458</v>
+        <v>57.31277839643201</v>
       </c>
       <c r="S4">
-        <v>0.003455474132973309</v>
+        <v>0.003945871171926633</v>
       </c>
       <c r="T4">
-        <v>0.003455474132973309</v>
+        <v>0.003945871171926634</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,309 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>11.14069866666667</v>
+      </c>
+      <c r="H5">
+        <v>33.422096</v>
+      </c>
+      <c r="I5">
+        <v>0.9684602815214559</v>
+      </c>
+      <c r="J5">
+        <v>0.9684602815214559</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>53.47143866666666</v>
+      </c>
+      <c r="N5">
+        <v>160.414316</v>
+      </c>
+      <c r="O5">
+        <v>0.3811416689464024</v>
+      </c>
+      <c r="P5">
+        <v>0.3811416689464024</v>
+      </c>
+      <c r="Q5">
+        <v>595.7091854584818</v>
+      </c>
+      <c r="R5">
+        <v>5361.382669126336</v>
+      </c>
+      <c r="S5">
+        <v>0.3691205680073904</v>
+      </c>
+      <c r="T5">
+        <v>0.3691205680073905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.3628176666666666</v>
+      </c>
+      <c r="H6">
+        <v>1.088453</v>
+      </c>
+      <c r="I6">
+        <v>0.03153971847854405</v>
+      </c>
+      <c r="J6">
+        <v>0.03153971847854405</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.76917</v>
+      </c>
+      <c r="N6">
+        <v>11.30751</v>
+      </c>
+      <c r="O6">
+        <v>0.02686645020528053</v>
+      </c>
+      <c r="P6">
+        <v>0.02686645020528053</v>
+      </c>
+      <c r="Q6">
+        <v>1.36752146467</v>
+      </c>
+      <c r="R6">
+        <v>12.30769318203</v>
+      </c>
+      <c r="S6">
+        <v>0.0008473602759923698</v>
+      </c>
+      <c r="T6">
+        <v>0.0008473602759923698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.3628176666666666</v>
+      </c>
+      <c r="H7">
+        <v>1.088453</v>
+      </c>
+      <c r="I7">
+        <v>0.03153971847854405</v>
+      </c>
+      <c r="J7">
+        <v>0.03153971847854405</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>82.48060333333333</v>
+      </c>
+      <c r="N7">
+        <v>247.44181</v>
+      </c>
+      <c r="O7">
+        <v>0.5879175050094569</v>
+      </c>
+      <c r="P7">
+        <v>0.5879175050094571</v>
+      </c>
+      <c r="Q7">
+        <v>29.92542004665889</v>
+      </c>
+      <c r="R7">
+        <v>269.32878041993</v>
+      </c>
+      <c r="S7">
+        <v>0.01854275259660628</v>
+      </c>
+      <c r="T7">
+        <v>0.01854275259660628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>11.076485816864</v>
-      </c>
-      <c r="H5">
-        <v>11.076485816864</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>50.4013867063138</v>
-      </c>
-      <c r="N5">
-        <v>50.4013867063138</v>
-      </c>
-      <c r="O5">
-        <v>0.3725474013611063</v>
-      </c>
-      <c r="P5">
-        <v>0.3725474013611063</v>
-      </c>
-      <c r="Q5">
-        <v>558.2702450027626</v>
-      </c>
-      <c r="R5">
-        <v>558.2702450027626</v>
-      </c>
-      <c r="S5">
-        <v>0.3725474013611063</v>
-      </c>
-      <c r="T5">
-        <v>0.3725474013611063</v>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.3628176666666666</v>
+      </c>
+      <c r="H8">
+        <v>1.088453</v>
+      </c>
+      <c r="I8">
+        <v>0.03153971847854405</v>
+      </c>
+      <c r="J8">
+        <v>0.03153971847854405</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.5716056666666667</v>
+      </c>
+      <c r="N8">
+        <v>1.714817</v>
+      </c>
+      <c r="O8">
+        <v>0.004074375838860061</v>
+      </c>
+      <c r="P8">
+        <v>0.004074375838860062</v>
+      </c>
+      <c r="Q8">
+        <v>0.2073886342334444</v>
+      </c>
+      <c r="R8">
+        <v>1.866497708101</v>
+      </c>
+      <c r="S8">
+        <v>0.0001285046669334281</v>
+      </c>
+      <c r="T8">
+        <v>0.0001285046669334281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3628176666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.088453</v>
+      </c>
+      <c r="I9">
+        <v>0.03153971847854405</v>
+      </c>
+      <c r="J9">
+        <v>0.03153971847854405</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>53.47143866666666</v>
+      </c>
+      <c r="N9">
+        <v>160.414316</v>
+      </c>
+      <c r="O9">
+        <v>0.3811416689464024</v>
+      </c>
+      <c r="P9">
+        <v>0.3811416689464024</v>
+      </c>
+      <c r="Q9">
+        <v>19.40038261034978</v>
+      </c>
+      <c r="R9">
+        <v>174.603443493148</v>
+      </c>
+      <c r="S9">
+        <v>0.01202110093901197</v>
+      </c>
+      <c r="T9">
+        <v>0.01202110093901197</v>
       </c>
     </row>
   </sheetData>
